--- a/biology/Botanique/Carissa_ovata/Carissa_ovata.xlsx
+++ b/biology/Botanique/Carissa_ovata/Carissa_ovata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carissa ovata, aussi appelé carissa éperon, est une espèce d'arbuste qui pousse notamment en Australie et en Nouvelle-Calédonie.
 </t>
@@ -513,16 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Carissa ovata est un petit arbuste (2 m en général, jusqu'à 4 m au maximum[2]) d'apparence touffue et à branches dressées. 
-De grosses épines de 1 cm de long sont situées aux bifurcations des tiges et sont placées de manière perpendiculaire aux feuilles. Les branches se ramifient de manière symétrique tous les 10 cm environ[2], ce qui donne à l’arbuste une allure très dense.
-Son écorce est vert foncé, rugueuse et le tronc possède de nombreuses lenticelles[2].
-Feuilles
-Les feuilles sont épaisses, coriaces, disposées face à face le long de la branche. Elles mesurent 1 centimètre de long et sont pointues aux extrémités et recourbées sur le côté, comme une cuillère. Elles sont de couleur vert foncé adultes et vert clair jeunes. Les nervures ne sont pas apparentes.
-Fleurs
-Les fleurs, d'un centimètre de diamètre, sont de couleur blanche et présentent 5 pétales placés en rayon dont les extrémités sont pointues. Elles sont regroupées à l’extrémité des branches de manière dense et sont odorantes.
-Fruits
-Les fruits sont des baies allongées de 12 à 15 mm de long sur 5 à 6 mm d’épaisseur. Ils sont pointus au sommet et n’ont qu’une seule graine. Ces fruits sont toxiques[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carissa ovata est un petit arbuste (2 m en général, jusqu'à 4 m au maximum) d'apparence touffue et à branches dressées. 
+De grosses épines de 1 cm de long sont situées aux bifurcations des tiges et sont placées de manière perpendiculaire aux feuilles. Les branches se ramifient de manière symétrique tous les 10 cm environ, ce qui donne à l’arbuste une allure très dense.
+Son écorce est vert foncé, rugueuse et le tronc possède de nombreuses lenticelles.
 </t>
         </is>
       </c>
@@ -548,12 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce se trouve en forêt sèche et en forêt sur calcaire[3]. Elle s'adapte à l'ombre comme au soleil[2].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont épaisses, coriaces, disposées face à face le long de la branche. Elles mesurent 1 centimètre de long et sont pointues aux extrémités et recourbées sur le côté, comme une cuillère. Elles sont de couleur vert foncé adultes et vert clair jeunes. Les nervures ne sont pas apparentes.
 </t>
         </is>
       </c>
@@ -579,12 +596,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, d'un centimètre de diamètre, sont de couleur blanche et présentent 5 pétales placés en rayon dont les extrémités sont pointues. Elles sont regroupées à l’extrémité des branches de manière dense et sont odorantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carissa_ovata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carissa_ovata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des baies allongées de 12 à 15 mm de long sur 5 à 6 mm d’épaisseur. Ils sont pointus au sommet et n’ont qu’une seule graine. Ces fruits sont toxiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carissa_ovata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carissa_ovata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se trouve en forêt sèche et en forêt sur calcaire. Elle s'adapte à l'ombre comme au soleil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carissa_ovata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carissa_ovata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante sert d'hôte à un papillon de nuit, le sphinx Nephele subvaria[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante sert d'hôte à un papillon de nuit, le sphinx Nephele subvaria.
 </t>
         </is>
       </c>
